--- a/pred_ohlcv/54/2019-11-01 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 RNT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H298"/>
+  <dimension ref="A1:I278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C2" t="n">
         <v>13.3</v>
@@ -417,15 +422,18 @@
         <v>13.3</v>
       </c>
       <c r="E2" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F2" t="n">
-        <v>2966.5413</v>
+        <v>85014.2738</v>
       </c>
       <c r="G2" t="n">
         <v>13.87</v>
       </c>
       <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>13.3</v>
       </c>
       <c r="F3" t="n">
-        <v>75253.3129</v>
+        <v>2966.5413</v>
       </c>
       <c r="G3" t="n">
         <v>13.87</v>
       </c>
       <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -472,12 +483,15 @@
         <v>13.3</v>
       </c>
       <c r="F4" t="n">
-        <v>17351.7246</v>
+        <v>75253.3129</v>
       </c>
       <c r="G4" t="n">
-        <v>13.86833333333333</v>
+        <v>13.87</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F5" t="n">
-        <v>420945.1561</v>
+        <v>17351.7246</v>
       </c>
       <c r="G5" t="n">
-        <v>13.865</v>
+        <v>13.86833333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C6" t="n">
         <v>13.2</v>
@@ -521,15 +538,18 @@
         <v>13.2</v>
       </c>
       <c r="E6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F6" t="n">
-        <v>85630.0998</v>
+        <v>420945.1561</v>
       </c>
       <c r="G6" t="n">
-        <v>13.85166666666667</v>
+        <v>13.865</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C7" t="n">
         <v>13.2</v>
@@ -547,15 +567,18 @@
         <v>13.2</v>
       </c>
       <c r="E7" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F7" t="n">
-        <v>4383.6553</v>
+        <v>85630.0998</v>
       </c>
       <c r="G7" t="n">
-        <v>13.835</v>
+        <v>13.85166666666667</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D8" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E8" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F8" t="n">
-        <v>31296.7943</v>
+        <v>4383.6553</v>
       </c>
       <c r="G8" t="n">
-        <v>13.82333333333333</v>
+        <v>13.835</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>13.1</v>
       </c>
       <c r="F9" t="n">
-        <v>67743.20450000001</v>
+        <v>31296.7943</v>
       </c>
       <c r="G9" t="n">
-        <v>13.80666666666667</v>
+        <v>13.82333333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>13.1</v>
       </c>
       <c r="F10" t="n">
-        <v>259287.3703</v>
+        <v>67743.20450000001</v>
       </c>
       <c r="G10" t="n">
-        <v>13.78833333333333</v>
+        <v>13.80666666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>13.1</v>
       </c>
       <c r="F11" t="n">
-        <v>11994.6212</v>
+        <v>259287.3703</v>
       </c>
       <c r="G11" t="n">
-        <v>13.76833333333334</v>
+        <v>13.78833333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>13.1</v>
       </c>
       <c r="F12" t="n">
-        <v>42159.7063</v>
+        <v>11994.6212</v>
       </c>
       <c r="G12" t="n">
-        <v>13.75333333333334</v>
+        <v>13.76833333333334</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F13" t="n">
-        <v>27696.489</v>
+        <v>42159.7063</v>
       </c>
       <c r="G13" t="n">
-        <v>13.72833333333334</v>
+        <v>13.75333333333334</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>6115.856</v>
+        <v>27696.489</v>
       </c>
       <c r="G14" t="n">
-        <v>13.71</v>
+        <v>13.72833333333334</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>13.2</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D15" t="n">
         <v>13.2</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F15" t="n">
-        <v>13383.5249</v>
+        <v>6115.856</v>
       </c>
       <c r="G15" t="n">
-        <v>13.68833333333334</v>
+        <v>13.71</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>13.2</v>
       </c>
       <c r="C16" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
         <v>13.2</v>
       </c>
       <c r="E16" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>38291.8881</v>
+        <v>13383.5249</v>
       </c>
       <c r="G16" t="n">
-        <v>13.66833333333334</v>
+        <v>13.68833333333334</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>13.2</v>
       </c>
       <c r="C17" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D17" t="n">
         <v>13.2</v>
       </c>
       <c r="E17" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F17" t="n">
-        <v>9996.060600000001</v>
+        <v>38291.8881</v>
       </c>
       <c r="G17" t="n">
-        <v>13.65166666666667</v>
+        <v>13.66833333333334</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>13.2</v>
       </c>
       <c r="F18" t="n">
-        <v>9061.731100000001</v>
+        <v>9996.060600000001</v>
       </c>
       <c r="G18" t="n">
-        <v>13.63500000000001</v>
+        <v>13.65166666666667</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -862,12 +918,15 @@
         <v>13.2</v>
       </c>
       <c r="F19" t="n">
-        <v>13820.9052</v>
+        <v>9061.731100000001</v>
       </c>
       <c r="G19" t="n">
-        <v>13.62333333333334</v>
+        <v>13.63500000000001</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F20" t="n">
-        <v>27210.1885</v>
+        <v>13820.9052</v>
       </c>
       <c r="G20" t="n">
-        <v>13.60833333333334</v>
+        <v>13.62333333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -914,12 +976,15 @@
         <v>13.1</v>
       </c>
       <c r="F21" t="n">
-        <v>48412.2575</v>
+        <v>27210.1885</v>
       </c>
       <c r="G21" t="n">
-        <v>13.59333333333334</v>
+        <v>13.60833333333334</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,21 +996,24 @@
         <v>13.1</v>
       </c>
       <c r="C22" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="D22" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="E22" t="n">
         <v>13.1</v>
       </c>
       <c r="F22" t="n">
-        <v>163345.7704</v>
+        <v>48412.2575</v>
       </c>
       <c r="G22" t="n">
-        <v>13.57833333333334</v>
+        <v>13.59333333333334</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="C23" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D23" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E23" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="F23" t="n">
-        <v>20943.2835</v>
+        <v>163345.7704</v>
       </c>
       <c r="G23" t="n">
-        <v>13.56833333333334</v>
+        <v>13.57833333333334</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>13.4</v>
       </c>
       <c r="F24" t="n">
-        <v>17721.0447</v>
+        <v>20943.2835</v>
       </c>
       <c r="G24" t="n">
-        <v>13.55666666666667</v>
+        <v>13.56833333333334</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>13.4</v>
       </c>
       <c r="F25" t="n">
-        <v>268530.3731</v>
+        <v>17721.0447</v>
       </c>
       <c r="G25" t="n">
-        <v>13.54666666666667</v>
+        <v>13.55666666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>13.4</v>
       </c>
       <c r="F26" t="n">
-        <v>33685.4332</v>
+        <v>268530.3731</v>
       </c>
       <c r="G26" t="n">
-        <v>13.53833333333334</v>
+        <v>13.54666666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C27" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="D27" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E27" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="F27" t="n">
-        <v>32682.7778</v>
+        <v>33685.4332</v>
       </c>
       <c r="G27" t="n">
-        <v>13.52500000000001</v>
+        <v>13.53833333333334</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1096,12 +1179,15 @@
         <v>13.2</v>
       </c>
       <c r="F28" t="n">
-        <v>17676.7421</v>
+        <v>32682.7778</v>
       </c>
       <c r="G28" t="n">
-        <v>13.50500000000001</v>
+        <v>13.52500000000001</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1122,12 +1208,15 @@
         <v>13.2</v>
       </c>
       <c r="F29" t="n">
-        <v>11964.6347</v>
+        <v>17676.7421</v>
       </c>
       <c r="G29" t="n">
-        <v>13.48833333333334</v>
+        <v>13.50500000000001</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>13.2</v>
       </c>
       <c r="F30" t="n">
-        <v>92933.7142</v>
+        <v>11964.6347</v>
       </c>
       <c r="G30" t="n">
-        <v>13.47166666666667</v>
+        <v>13.48833333333334</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C31" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D31" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E31" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F31" t="n">
-        <v>14621.2808</v>
+        <v>92933.7142</v>
       </c>
       <c r="G31" t="n">
-        <v>13.45166666666668</v>
+        <v>13.47166666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C32" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="D32" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="E32" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F32" t="n">
-        <v>14929.9129</v>
+        <v>14621.2808</v>
       </c>
       <c r="G32" t="n">
-        <v>13.43500000000001</v>
+        <v>13.45166666666668</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>13.2</v>
       </c>
       <c r="C33" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D33" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E33" t="n">
         <v>13.2</v>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>14929.9129</v>
       </c>
       <c r="G33" t="n">
-        <v>13.41666666666668</v>
+        <v>13.43500000000001</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,12 +1353,15 @@
         <v>13.2</v>
       </c>
       <c r="F34" t="n">
-        <v>5252.8241</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="n">
-        <v>13.40333333333334</v>
+        <v>13.41666666666668</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>13.2</v>
       </c>
       <c r="C35" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D35" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E35" t="n">
         <v>13.2</v>
       </c>
       <c r="F35" t="n">
-        <v>19984.8558</v>
+        <v>5252.8241</v>
       </c>
       <c r="G35" t="n">
-        <v>13.39500000000001</v>
+        <v>13.40333333333334</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C36" t="n">
         <v>13.3</v>
@@ -1301,15 +1408,18 @@
         <v>13.3</v>
       </c>
       <c r="E36" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F36" t="n">
-        <v>115.0387</v>
+        <v>19984.8558</v>
       </c>
       <c r="G36" t="n">
-        <v>13.38000000000001</v>
+        <v>13.39500000000001</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C37" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D37" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E37" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F37" t="n">
-        <v>2974.1791</v>
+        <v>115.0387</v>
       </c>
       <c r="G37" t="n">
-        <v>13.36666666666667</v>
+        <v>13.38000000000001</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C38" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D38" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E38" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F38" t="n">
-        <v>1500</v>
+        <v>2974.1791</v>
       </c>
       <c r="G38" t="n">
-        <v>13.35666666666667</v>
+        <v>13.36666666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>13.3</v>
       </c>
       <c r="F39" t="n">
-        <v>15500</v>
+        <v>1500</v>
       </c>
       <c r="G39" t="n">
-        <v>13.34666666666667</v>
+        <v>13.35666666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1408,12 +1527,15 @@
         <v>13.3</v>
       </c>
       <c r="F40" t="n">
-        <v>23821.8045</v>
+        <v>15500</v>
       </c>
       <c r="G40" t="n">
-        <v>13.33500000000001</v>
+        <v>13.34666666666667</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>13.3</v>
       </c>
       <c r="F41" t="n">
-        <v>4899.19</v>
+        <v>23821.8045</v>
       </c>
       <c r="G41" t="n">
-        <v>13.32666666666667</v>
+        <v>13.33500000000001</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C42" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D42" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E42" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F42" t="n">
-        <v>64889.5293</v>
+        <v>4899.19</v>
       </c>
       <c r="G42" t="n">
-        <v>13.31333333333334</v>
+        <v>13.32666666666667</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>13.2</v>
       </c>
       <c r="F43" t="n">
-        <v>7575.757575757576</v>
+        <v>64889.5293</v>
       </c>
       <c r="G43" t="n">
-        <v>13.30000000000001</v>
+        <v>13.31333333333334</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C44" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D44" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E44" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F44" t="n">
-        <v>38491.3589</v>
+        <v>7575.757575757576</v>
       </c>
       <c r="G44" t="n">
-        <v>13.28500000000001</v>
+        <v>13.30000000000001</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C45" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D45" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E45" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F45" t="n">
-        <v>16913.45412424242</v>
+        <v>38491.3589</v>
       </c>
       <c r="G45" t="n">
-        <v>13.27166666666668</v>
+        <v>13.28500000000001</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>13.2</v>
       </c>
       <c r="F46" t="n">
-        <v>8971.545875757576</v>
+        <v>16913.45412424242</v>
       </c>
       <c r="G46" t="n">
-        <v>13.26000000000001</v>
+        <v>13.27166666666668</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C47" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D47" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E47" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F47" t="n">
-        <v>107929.6115</v>
+        <v>8971.545875757576</v>
       </c>
       <c r="G47" t="n">
-        <v>13.24666666666668</v>
+        <v>13.26000000000001</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>13.1</v>
       </c>
       <c r="F48" t="n">
-        <v>50298.9375</v>
+        <v>107929.6115</v>
       </c>
       <c r="G48" t="n">
-        <v>13.23500000000001</v>
+        <v>13.24666666666668</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>13.1</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>50298.9375</v>
       </c>
       <c r="G49" t="n">
-        <v>13.22500000000001</v>
+        <v>13.23500000000001</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C50" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D50" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E50" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F50" t="n">
-        <v>770</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>13.22500000000001</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C51" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D51" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E51" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F51" t="n">
-        <v>44152.4338</v>
+        <v>770</v>
       </c>
       <c r="G51" t="n">
-        <v>13.22166666666668</v>
+        <v>13.22500000000001</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C52" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D52" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E52" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F52" t="n">
-        <v>3147.79</v>
+        <v>44152.4338</v>
       </c>
       <c r="G52" t="n">
-        <v>13.22000000000001</v>
+        <v>13.22166666666668</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C53" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D53" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E53" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>3147.79</v>
       </c>
       <c r="G53" t="n">
-        <v>13.21833333333335</v>
+        <v>13.22000000000001</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>13.1</v>
       </c>
       <c r="F54" t="n">
-        <v>25107.8792</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>13.21333333333335</v>
+        <v>13.21833333333335</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>13.1</v>
       </c>
       <c r="F55" t="n">
-        <v>55000</v>
+        <v>25107.8792</v>
       </c>
       <c r="G55" t="n">
-        <v>13.21000000000002</v>
+        <v>13.21333333333335</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>13.1</v>
       </c>
       <c r="F56" t="n">
-        <v>75323.6376</v>
+        <v>55000</v>
       </c>
       <c r="G56" t="n">
-        <v>13.20333333333335</v>
+        <v>13.21000000000002</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>13.1</v>
       </c>
       <c r="F57" t="n">
-        <v>121509.7808</v>
+        <v>75323.6376</v>
       </c>
       <c r="G57" t="n">
-        <v>13.20166666666668</v>
+        <v>13.20333333333335</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D58" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F58" t="n">
-        <v>172295.7153</v>
+        <v>121509.7808</v>
       </c>
       <c r="G58" t="n">
-        <v>13.19833333333335</v>
+        <v>13.20166666666668</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C59" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D59" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E59" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F59" t="n">
-        <v>14436.0826</v>
+        <v>172295.7153</v>
       </c>
       <c r="G59" t="n">
-        <v>13.19500000000002</v>
+        <v>13.19833333333335</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,7 +2095,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C60" t="n">
         <v>13.2</v>
@@ -1925,15 +2104,18 @@
         <v>13.2</v>
       </c>
       <c r="E60" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F60" t="n">
-        <v>521886.03</v>
+        <v>14436.0826</v>
       </c>
       <c r="G60" t="n">
         <v>13.19500000000002</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C61" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D61" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E61" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>521886.03</v>
       </c>
       <c r="G61" t="n">
         <v>13.19500000000002</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F62" t="n">
-        <v>71597.2062</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>13.19333333333335</v>
+        <v>13.19500000000002</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C63" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D63" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E63" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>71597.2062</v>
       </c>
       <c r="G63" t="n">
         <v>13.19333333333335</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C64" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D64" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E64" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F64" t="n">
-        <v>9377.104499999999</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>13.19166666666669</v>
+        <v>13.19333333333335</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,21 +2243,24 @@
         <v>13.2</v>
       </c>
       <c r="C65" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D65" t="n">
         <v>13.2</v>
       </c>
       <c r="E65" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F65" t="n">
-        <v>85394.1906</v>
+        <v>9377.104499999999</v>
       </c>
       <c r="G65" t="n">
-        <v>13.19000000000002</v>
+        <v>13.19166666666669</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>13.1</v>
       </c>
       <c r="F66" t="n">
-        <v>74023.9146</v>
+        <v>85394.1906</v>
       </c>
       <c r="G66" t="n">
-        <v>13.18833333333335</v>
+        <v>13.19000000000002</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>13.2</v>
       </c>
       <c r="C67" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D67" t="n">
         <v>13.2</v>
       </c>
       <c r="E67" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F67" t="n">
-        <v>1230</v>
+        <v>74023.9146</v>
       </c>
       <c r="G67" t="n">
         <v>13.18833333333335</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>13.2</v>
       </c>
       <c r="F68" t="n">
-        <v>16986.3235</v>
+        <v>1230</v>
       </c>
       <c r="G68" t="n">
-        <v>13.19000000000002</v>
+        <v>13.18833333333335</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C69" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D69" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E69" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>16986.3235</v>
       </c>
       <c r="G69" t="n">
-        <v>13.19333333333335</v>
+        <v>13.19000000000002</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>13.3</v>
       </c>
       <c r="F70" t="n">
-        <v>1237.4436</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>13.19666666666668</v>
+        <v>13.19333333333335</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>13.3</v>
       </c>
       <c r="F71" t="n">
-        <v>209129.1211</v>
+        <v>1237.4436</v>
       </c>
       <c r="G71" t="n">
-        <v>13.20000000000002</v>
+        <v>13.19666666666668</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,21 +2446,24 @@
         <v>13.3</v>
       </c>
       <c r="C72" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D72" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E72" t="n">
         <v>13.3</v>
       </c>
       <c r="F72" t="n">
-        <v>20596.8007</v>
+        <v>209129.1211</v>
       </c>
       <c r="G72" t="n">
-        <v>13.20500000000001</v>
+        <v>13.20000000000002</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C73" t="n">
         <v>13.4</v>
       </c>
-      <c r="C73" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D73" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E73" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F73" t="n">
-        <v>526544.1176</v>
+        <v>20596.8007</v>
       </c>
       <c r="G73" t="n">
-        <v>13.21500000000001</v>
+        <v>13.20500000000001</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C74" t="n">
         <v>13.6</v>
       </c>
       <c r="D74" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E74" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F74" t="n">
-        <v>141393.8648</v>
+        <v>526544.1176</v>
       </c>
       <c r="G74" t="n">
-        <v>13.22166666666668</v>
+        <v>13.21500000000001</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C75" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D75" t="n">
         <v>13.7</v>
       </c>
       <c r="E75" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F75" t="n">
-        <v>12684.7143</v>
+        <v>141393.8648</v>
       </c>
       <c r="G75" t="n">
-        <v>13.23333333333335</v>
+        <v>13.22166666666668</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2559,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C76" t="n">
         <v>13.7</v>
@@ -2344,12 +2571,15 @@
         <v>13.6</v>
       </c>
       <c r="F76" t="n">
-        <v>22192.8156</v>
+        <v>12684.7143</v>
       </c>
       <c r="G76" t="n">
-        <v>13.24333333333335</v>
+        <v>13.23333333333335</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2361,21 +2591,24 @@
         <v>13.6</v>
       </c>
       <c r="C77" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D77" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E77" t="n">
         <v>13.6</v>
       </c>
-      <c r="E77" t="n">
-        <v>13.5</v>
-      </c>
       <c r="F77" t="n">
-        <v>24.568</v>
+        <v>22192.8156</v>
       </c>
       <c r="G77" t="n">
-        <v>13.24833333333335</v>
+        <v>13.24333333333335</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C78" t="n">
         <v>13.5</v>
       </c>
       <c r="D78" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E78" t="n">
         <v>13.5</v>
       </c>
       <c r="F78" t="n">
-        <v>97455.8518</v>
+        <v>24.568</v>
       </c>
       <c r="G78" t="n">
-        <v>13.25333333333335</v>
+        <v>13.24833333333335</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,25 +2646,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C79" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D79" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E79" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F79" t="n">
-        <v>23064.9864</v>
+        <v>97455.8518</v>
       </c>
       <c r="G79" t="n">
-        <v>13.25666666666668</v>
+        <v>13.25333333333335</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2448,12 +2687,15 @@
         <v>13.4</v>
       </c>
       <c r="F80" t="n">
-        <v>214343.5956</v>
+        <v>23064.9864</v>
       </c>
       <c r="G80" t="n">
-        <v>13.26166666666668</v>
+        <v>13.25666666666668</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>13.4</v>
       </c>
       <c r="F81" t="n">
-        <v>312200.522</v>
+        <v>214343.5956</v>
       </c>
       <c r="G81" t="n">
-        <v>13.26666666666668</v>
+        <v>13.26166666666668</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C82" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D82" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E82" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F82" t="n">
-        <v>333</v>
+        <v>312200.522</v>
       </c>
       <c r="G82" t="n">
-        <v>13.27000000000001</v>
+        <v>13.26666666666668</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>13.5</v>
       </c>
       <c r="F83" t="n">
-        <v>177819.037</v>
+        <v>333</v>
       </c>
       <c r="G83" t="n">
-        <v>13.27166666666668</v>
+        <v>13.27000000000001</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C84" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D84" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E84" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F84" t="n">
-        <v>333</v>
+        <v>177819.037</v>
       </c>
       <c r="G84" t="n">
-        <v>13.27500000000001</v>
+        <v>13.27166666666668</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C85" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D85" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E85" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F85" t="n">
-        <v>16199.4074</v>
+        <v>333</v>
       </c>
       <c r="G85" t="n">
-        <v>13.27666666666668</v>
+        <v>13.27500000000001</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C86" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D86" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E86" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F86" t="n">
-        <v>333</v>
+        <v>16199.4074</v>
       </c>
       <c r="G86" t="n">
-        <v>13.28000000000001</v>
+        <v>13.27666666666668</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C87" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D87" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E87" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F87" t="n">
-        <v>9020</v>
+        <v>333</v>
       </c>
       <c r="G87" t="n">
-        <v>13.28500000000001</v>
+        <v>13.28000000000001</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C88" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D88" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E88" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F88" t="n">
-        <v>89071.65119999999</v>
+        <v>9020</v>
       </c>
       <c r="G88" t="n">
-        <v>13.28833333333335</v>
+        <v>13.28500000000001</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C89" t="n">
         <v>13.4</v>
       </c>
-      <c r="C89" t="n">
-        <v>13.3</v>
-      </c>
       <c r="D89" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E89" t="n">
         <v>13.4</v>
       </c>
-      <c r="E89" t="n">
-        <v>13.3</v>
-      </c>
       <c r="F89" t="n">
-        <v>135661.4934</v>
+        <v>89071.65119999999</v>
       </c>
       <c r="G89" t="n">
-        <v>13.29000000000001</v>
+        <v>13.28833333333335</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C90" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="D90" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E90" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F90" t="n">
-        <v>6000</v>
+        <v>135661.4934</v>
       </c>
       <c r="G90" t="n">
-        <v>13.29666666666668</v>
+        <v>13.29000000000001</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2731,15 +3003,18 @@
         <v>13.6</v>
       </c>
       <c r="E91" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F91" t="n">
-        <v>12079.0457</v>
+        <v>6000</v>
       </c>
       <c r="G91" t="n">
-        <v>13.30500000000001</v>
+        <v>13.29666666666668</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,7 +3023,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C92" t="n">
         <v>13.6</v>
@@ -2757,15 +3032,18 @@
         <v>13.6</v>
       </c>
       <c r="E92" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F92" t="n">
-        <v>1044.6139</v>
+        <v>12079.0457</v>
       </c>
       <c r="G92" t="n">
-        <v>13.31000000000001</v>
+        <v>13.30500000000001</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,7 +3052,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C93" t="n">
         <v>13.6</v>
@@ -2783,15 +3061,18 @@
         <v>13.6</v>
       </c>
       <c r="E93" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F93" t="n">
-        <v>16170.2299</v>
+        <v>1044.6139</v>
       </c>
       <c r="G93" t="n">
-        <v>13.31666666666668</v>
+        <v>13.31000000000001</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,7 +3081,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C94" t="n">
         <v>13.6</v>
@@ -2809,15 +3090,18 @@
         <v>13.6</v>
       </c>
       <c r="E94" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F94" t="n">
-        <v>109926.3602</v>
+        <v>16170.2299</v>
       </c>
       <c r="G94" t="n">
-        <v>13.32333333333334</v>
+        <v>13.31666666666668</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>13.6</v>
       </c>
       <c r="F95" t="n">
-        <v>15290.3308</v>
+        <v>109926.3602</v>
       </c>
       <c r="G95" t="n">
-        <v>13.32833333333335</v>
+        <v>13.32333333333334</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2855,21 +3142,24 @@
         <v>13.6</v>
       </c>
       <c r="C96" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D96" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E96" t="n">
         <v>13.6</v>
       </c>
       <c r="F96" t="n">
-        <v>153849.3414</v>
+        <v>15290.3308</v>
       </c>
       <c r="G96" t="n">
-        <v>13.33500000000001</v>
+        <v>13.32833333333335</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +3168,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C97" t="n">
         <v>13.7</v>
@@ -2887,15 +3177,18 @@
         <v>13.7</v>
       </c>
       <c r="E97" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F97" t="n">
-        <v>121566.6423</v>
+        <v>153849.3414</v>
       </c>
       <c r="G97" t="n">
-        <v>13.34000000000001</v>
+        <v>13.33500000000001</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2907,21 +3200,24 @@
         <v>13.7</v>
       </c>
       <c r="C98" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D98" t="n">
         <v>13.7</v>
       </c>
       <c r="E98" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F98" t="n">
-        <v>81215.47440000001</v>
+        <v>121566.6423</v>
       </c>
       <c r="G98" t="n">
-        <v>13.34500000000002</v>
+        <v>13.34000000000001</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C99" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="D99" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E99" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="F99" t="n">
-        <v>56270.1013</v>
+        <v>81215.47440000001</v>
       </c>
       <c r="G99" t="n">
-        <v>13.35333333333335</v>
+        <v>13.34500000000002</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C100" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D100" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E100" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F100" t="n">
-        <v>14267.49</v>
+        <v>56270.1013</v>
       </c>
       <c r="G100" t="n">
-        <v>13.36000000000002</v>
+        <v>13.35333333333335</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>13.7</v>
       </c>
       <c r="C101" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D101" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E101" t="n">
         <v>13.7</v>
       </c>
       <c r="F101" t="n">
-        <v>56553.1573</v>
+        <v>14267.49</v>
       </c>
       <c r="G101" t="n">
-        <v>13.36833333333335</v>
+        <v>13.36000000000002</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,7 +3313,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C102" t="n">
         <v>13.8</v>
@@ -3017,15 +3322,18 @@
         <v>13.8</v>
       </c>
       <c r="E102" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F102" t="n">
-        <v>72455.2173</v>
+        <v>56553.1573</v>
       </c>
       <c r="G102" t="n">
-        <v>13.37833333333335</v>
+        <v>13.36833333333335</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>13.8</v>
       </c>
       <c r="F103" t="n">
-        <v>112476.3768</v>
+        <v>72455.2173</v>
       </c>
       <c r="G103" t="n">
-        <v>13.38833333333335</v>
+        <v>13.37833333333335</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C104" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D104" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E104" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F104" t="n">
-        <v>6310</v>
+        <v>112476.3768</v>
       </c>
       <c r="G104" t="n">
-        <v>13.39833333333335</v>
+        <v>13.38833333333335</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C105" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D105" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E105" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F105" t="n">
-        <v>26260.3623</v>
+        <v>6310</v>
       </c>
       <c r="G105" t="n">
-        <v>13.40833333333335</v>
+        <v>13.39833333333335</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>13.8</v>
       </c>
       <c r="F106" t="n">
-        <v>25223.1739</v>
+        <v>26260.3623</v>
       </c>
       <c r="G106" t="n">
-        <v>13.41833333333335</v>
+        <v>13.40833333333335</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>13.8</v>
       </c>
       <c r="F107" t="n">
-        <v>92620.37669999999</v>
+        <v>25223.1739</v>
       </c>
       <c r="G107" t="n">
-        <v>13.43000000000001</v>
+        <v>13.41833333333335</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>13.8</v>
       </c>
       <c r="F108" t="n">
-        <v>72699.3839</v>
+        <v>92620.37669999999</v>
       </c>
       <c r="G108" t="n">
-        <v>13.44166666666668</v>
+        <v>13.43000000000001</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>13.8</v>
       </c>
       <c r="F109" t="n">
-        <v>14492.75362318841</v>
+        <v>72699.3839</v>
       </c>
       <c r="G109" t="n">
-        <v>13.45333333333334</v>
+        <v>13.44166666666668</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3219,21 +3548,24 @@
         <v>13.8</v>
       </c>
       <c r="C110" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="D110" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="E110" t="n">
         <v>13.8</v>
       </c>
       <c r="F110" t="n">
-        <v>204060.870155535</v>
+        <v>14492.75362318841</v>
       </c>
       <c r="G110" t="n">
-        <v>13.46833333333334</v>
+        <v>13.45333333333334</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="C111" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="D111" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E111" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="F111" t="n">
-        <v>345219.3038522625</v>
+        <v>204060.870155535</v>
       </c>
       <c r="G111" t="n">
-        <v>13.48666666666668</v>
+        <v>13.46833333333334</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,7 +3603,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="C112" t="n">
         <v>14.2</v>
@@ -3277,15 +3612,18 @@
         <v>14.2</v>
       </c>
       <c r="E112" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="F112" t="n">
-        <v>2816.901408450704</v>
+        <v>345219.3038522625</v>
       </c>
       <c r="G112" t="n">
-        <v>13.50333333333334</v>
+        <v>13.48666666666668</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>14.2</v>
       </c>
       <c r="F113" t="n">
-        <v>171348.0281380282</v>
+        <v>2816.901408450704</v>
       </c>
       <c r="G113" t="n">
-        <v>13.52166666666668</v>
+        <v>13.50333333333334</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C114" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D114" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E114" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="F114" t="n">
-        <v>21024.4028</v>
+        <v>171348.0281380282</v>
       </c>
       <c r="G114" t="n">
-        <v>13.53666666666667</v>
+        <v>13.52166666666668</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C115" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D115" t="n">
         <v>14.1</v>
       </c>
       <c r="E115" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F115" t="n">
-        <v>18862.50742340425</v>
+        <v>21024.4028</v>
       </c>
       <c r="G115" t="n">
-        <v>13.55333333333334</v>
+        <v>13.53666666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C116" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="D116" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E116" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="F116" t="n">
-        <v>3522.671337159125</v>
+        <v>18862.50742340425</v>
       </c>
       <c r="G116" t="n">
-        <v>13.57166666666668</v>
+        <v>13.55333333333334</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3401,21 +3751,24 @@
         <v>14.1</v>
       </c>
       <c r="C117" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="D117" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="E117" t="n">
         <v>14.1</v>
       </c>
       <c r="F117" t="n">
-        <v>131626.5034</v>
+        <v>3522.671337159125</v>
       </c>
       <c r="G117" t="n">
-        <v>13.59166666666667</v>
+        <v>13.57166666666668</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,7 +3777,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="C118" t="n">
         <v>14.3</v>
@@ -3433,15 +3786,18 @@
         <v>14.3</v>
       </c>
       <c r="E118" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="F118" t="n">
-        <v>57971.6083</v>
+        <v>131626.5034</v>
       </c>
       <c r="G118" t="n">
-        <v>13.61333333333334</v>
+        <v>13.59166666666667</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>14.3</v>
       </c>
       <c r="F119" t="n">
-        <v>24272.9858</v>
+        <v>57971.6083</v>
       </c>
       <c r="G119" t="n">
-        <v>13.63166666666667</v>
+        <v>13.61333333333334</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="C120" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="D120" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="E120" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="F120" t="n">
-        <v>8215.422500000001</v>
+        <v>24272.9858</v>
       </c>
       <c r="G120" t="n">
-        <v>13.64833333333334</v>
+        <v>13.63166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C121" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D121" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E121" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="F121" t="n">
-        <v>46474.6367</v>
+        <v>8215.422500000001</v>
       </c>
       <c r="G121" t="n">
-        <v>13.66000000000001</v>
+        <v>13.64833333333334</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="C122" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D122" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="E122" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F122" t="n">
-        <v>8857.1422</v>
+        <v>46474.6367</v>
       </c>
       <c r="G122" t="n">
-        <v>13.67166666666667</v>
+        <v>13.66000000000001</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>13.9</v>
       </c>
       <c r="F123" t="n">
-        <v>8194.883900000001</v>
+        <v>8857.1422</v>
       </c>
       <c r="G123" t="n">
-        <v>13.68166666666667</v>
+        <v>13.67166666666667</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3592,12 +3963,15 @@
         <v>13.9</v>
       </c>
       <c r="F124" t="n">
-        <v>1221.31</v>
+        <v>8194.883900000001</v>
       </c>
       <c r="G124" t="n">
-        <v>13.69333333333334</v>
+        <v>13.68166666666667</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C125" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D125" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E125" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F125" t="n">
-        <v>3184.5711</v>
+        <v>1221.31</v>
       </c>
       <c r="G125" t="n">
-        <v>13.70833333333334</v>
+        <v>13.69333333333334</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>14</v>
       </c>
       <c r="F126" t="n">
-        <v>4100.5717</v>
+        <v>3184.5711</v>
       </c>
       <c r="G126" t="n">
-        <v>13.72333333333334</v>
+        <v>13.70833333333334</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,25 +4038,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C127" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D127" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E127" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F127" t="n">
-        <v>8878.5988</v>
+        <v>4100.5717</v>
       </c>
       <c r="G127" t="n">
-        <v>13.735</v>
+        <v>13.72333333333334</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3684,25 +4067,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C128" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D128" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E128" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F128" t="n">
-        <v>2898.1071</v>
+        <v>8878.5988</v>
       </c>
       <c r="G128" t="n">
-        <v>13.74833333333333</v>
+        <v>13.735</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3713,21 +4099,24 @@
         <v>14</v>
       </c>
       <c r="C129" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D129" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E129" t="n">
         <v>14</v>
       </c>
       <c r="F129" t="n">
-        <v>10744.2778</v>
+        <v>2898.1071</v>
       </c>
       <c r="G129" t="n">
-        <v>13.76166666666667</v>
+        <v>13.74833333333333</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,25 +4125,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="C130" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="D130" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E130" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="F130" t="n">
-        <v>3000</v>
+        <v>10744.2778</v>
       </c>
       <c r="G130" t="n">
-        <v>13.77666666666667</v>
+        <v>13.76166666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3762,25 +4154,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C131" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="D131" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E131" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="F131" t="n">
-        <v>7460</v>
+        <v>3000</v>
       </c>
       <c r="G131" t="n">
-        <v>13.79</v>
+        <v>13.77666666666667</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3788,25 +4183,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C132" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D132" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E132" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F132" t="n">
-        <v>59485.5819</v>
+        <v>7460</v>
       </c>
       <c r="G132" t="n">
-        <v>13.80000000000001</v>
+        <v>13.79</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3826,13 +4224,16 @@
         <v>14</v>
       </c>
       <c r="F133" t="n">
-        <v>13157.9847</v>
+        <v>59485.5819</v>
       </c>
       <c r="G133" t="n">
-        <v>13.80666666666667</v>
+        <v>13.80000000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3852,13 +4253,16 @@
         <v>14</v>
       </c>
       <c r="F134" t="n">
-        <v>3000</v>
+        <v>13157.9847</v>
       </c>
       <c r="G134" t="n">
-        <v>13.81333333333334</v>
+        <v>13.80666666666667</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3866,25 +4270,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C135" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D135" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E135" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F135" t="n">
-        <v>27050.7807</v>
+        <v>3000</v>
       </c>
       <c r="G135" t="n">
-        <v>13.81666666666667</v>
+        <v>13.81333333333334</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C136" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D136" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E136" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F136" t="n">
-        <v>26049.3045</v>
+        <v>27050.7807</v>
       </c>
       <c r="G136" t="n">
-        <v>13.81833333333334</v>
+        <v>13.81666666666667</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C137" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D137" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E137" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F137" t="n">
-        <v>65212.8746</v>
+        <v>26049.3045</v>
       </c>
       <c r="G137" t="n">
-        <v>13.82</v>
+        <v>13.81833333333334</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C138" t="n">
         <v>13.6</v>
       </c>
-      <c r="C138" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D138" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E138" t="n">
         <v>13.6</v>
       </c>
       <c r="F138" t="n">
-        <v>26115.1515</v>
+        <v>65212.8746</v>
       </c>
       <c r="G138" t="n">
-        <v>13.825</v>
+        <v>13.82</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,10 +4386,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="C139" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D139" t="n">
         <v>13.8</v>
@@ -3982,12 +4398,15 @@
         <v>13.6</v>
       </c>
       <c r="F139" t="n">
-        <v>116557.2472</v>
+        <v>26115.1515</v>
       </c>
       <c r="G139" t="n">
-        <v>13.82833333333334</v>
+        <v>13.825</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C140" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D140" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E140" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>116557.2472</v>
       </c>
       <c r="G140" t="n">
-        <v>13.83666666666667</v>
+        <v>13.82833333333334</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>13.9</v>
       </c>
       <c r="F141" t="n">
-        <v>2742.1726</v>
+        <v>10</v>
       </c>
       <c r="G141" t="n">
-        <v>13.845</v>
+        <v>13.83666666666667</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>13.9</v>
       </c>
       <c r="F142" t="n">
-        <v>15424.7481</v>
+        <v>2742.1726</v>
       </c>
       <c r="G142" t="n">
-        <v>13.85166666666667</v>
+        <v>13.845</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>13.9</v>
       </c>
       <c r="F143" t="n">
-        <v>48421.3308</v>
+        <v>15424.7481</v>
       </c>
       <c r="G143" t="n">
-        <v>13.85833333333334</v>
+        <v>13.85166666666667</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>13.9</v>
       </c>
       <c r="F144" t="n">
-        <v>51217.8812</v>
+        <v>48421.3308</v>
       </c>
       <c r="G144" t="n">
-        <v>13.86333333333334</v>
+        <v>13.85833333333334</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C145" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D145" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E145" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F145" t="n">
-        <v>5757.5357</v>
+        <v>51217.8812</v>
       </c>
       <c r="G145" t="n">
-        <v>13.87166666666667</v>
+        <v>13.86333333333334</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>14</v>
       </c>
       <c r="F146" t="n">
-        <v>34362.8801</v>
+        <v>5757.5357</v>
       </c>
       <c r="G146" t="n">
-        <v>13.87833333333333</v>
+        <v>13.87166666666667</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C147" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="D147" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="E147" t="n">
         <v>14</v>
       </c>
       <c r="F147" t="n">
-        <v>37474.3266</v>
+        <v>34362.8801</v>
       </c>
       <c r="G147" t="n">
-        <v>13.89</v>
+        <v>13.87833333333333</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4207,21 +4650,24 @@
         <v>14.1</v>
       </c>
       <c r="C148" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="D148" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E148" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F148" t="n">
-        <v>39629.5442</v>
+        <v>37474.3266</v>
       </c>
       <c r="G148" t="n">
-        <v>13.90166666666667</v>
+        <v>13.89</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,12 +4688,15 @@
         <v>14.1</v>
       </c>
       <c r="F149" t="n">
-        <v>11936.7011</v>
+        <v>39629.5442</v>
       </c>
       <c r="G149" t="n">
-        <v>13.915</v>
+        <v>13.90166666666667</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="C150" t="n">
         <v>14.1</v>
       </c>
       <c r="D150" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E150" t="n">
         <v>14.1</v>
       </c>
       <c r="F150" t="n">
-        <v>188285.5985</v>
+        <v>11936.7011</v>
       </c>
       <c r="G150" t="n">
-        <v>13.92333333333334</v>
+        <v>13.915</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="C151" t="n">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="D151" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="E151" t="n">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="F151" t="n">
-        <v>461700.8645</v>
+        <v>188285.5985</v>
       </c>
       <c r="G151" t="n">
-        <v>13.92166666666667</v>
+        <v>13.92333333333334</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="C152" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="D152" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="E152" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="F152" t="n">
-        <v>100</v>
+        <v>461700.8645</v>
       </c>
       <c r="G152" t="n">
-        <v>13.925</v>
+        <v>13.92166666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="C153" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="D153" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="E153" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="F153" t="n">
-        <v>18908.0714</v>
+        <v>100</v>
       </c>
       <c r="G153" t="n">
-        <v>13.93166666666667</v>
+        <v>13.925</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="C154" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="D154" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="E154" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="F154" t="n">
-        <v>11981.1085</v>
+        <v>18908.0714</v>
       </c>
       <c r="G154" t="n">
-        <v>13.935</v>
+        <v>13.93166666666667</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4389,21 +4853,24 @@
         <v>13.8</v>
       </c>
       <c r="C155" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D155" t="n">
         <v>13.8</v>
       </c>
       <c r="E155" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F155" t="n">
-        <v>24212.3033</v>
+        <v>11981.1085</v>
       </c>
       <c r="G155" t="n">
-        <v>13.93666666666667</v>
+        <v>13.935</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C156" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="D156" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E156" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="F156" t="n">
-        <v>2876.4748</v>
+        <v>24212.3033</v>
       </c>
       <c r="G156" t="n">
-        <v>13.94</v>
+        <v>13.93666666666667</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>13.9</v>
       </c>
       <c r="F157" t="n">
-        <v>42811.7985</v>
+        <v>2876.4748</v>
       </c>
       <c r="G157" t="n">
-        <v>13.94333333333333</v>
+        <v>13.94</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>13.9</v>
       </c>
       <c r="F158" t="n">
-        <v>2917.8417</v>
+        <v>42811.7985</v>
       </c>
       <c r="G158" t="n">
-        <v>13.94833333333333</v>
+        <v>13.94333333333333</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4493,21 +4969,24 @@
         <v>13.9</v>
       </c>
       <c r="C159" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D159" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E159" t="n">
         <v>13.9</v>
       </c>
       <c r="F159" t="n">
-        <v>11073.4105</v>
+        <v>2917.8417</v>
       </c>
       <c r="G159" t="n">
-        <v>13.95166666666666</v>
+        <v>13.94833333333333</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,7 +4995,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C160" t="n">
         <v>14</v>
@@ -4525,15 +5004,18 @@
         <v>14</v>
       </c>
       <c r="E160" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F160" t="n">
-        <v>394.6428</v>
+        <v>11073.4105</v>
       </c>
       <c r="G160" t="n">
-        <v>13.95666666666667</v>
+        <v>13.95166666666666</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4554,12 +5036,15 @@
         <v>14</v>
       </c>
       <c r="F161" t="n">
-        <v>214.2857</v>
+        <v>394.6428</v>
       </c>
       <c r="G161" t="n">
-        <v>13.96</v>
+        <v>13.95666666666667</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4571,21 +5056,24 @@
         <v>14</v>
       </c>
       <c r="C162" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D162" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E162" t="n">
         <v>14</v>
       </c>
       <c r="F162" t="n">
-        <v>408839.6561</v>
+        <v>214.2857</v>
       </c>
       <c r="G162" t="n">
-        <v>13.965</v>
+        <v>13.96</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C163" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="D163" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E163" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F163" t="n">
-        <v>3775.27</v>
+        <v>408839.6561</v>
       </c>
       <c r="G163" t="n">
-        <v>13.97166666666667</v>
+        <v>13.965</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,7 +5111,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="C164" t="n">
         <v>14.2</v>
@@ -4629,15 +5120,18 @@
         <v>14.2</v>
       </c>
       <c r="E164" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="F164" t="n">
-        <v>23728.9436</v>
+        <v>3775.27</v>
       </c>
       <c r="G164" t="n">
-        <v>13.98</v>
+        <v>13.97166666666667</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C165" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="D165" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E165" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="F165" t="n">
-        <v>13150.0709</v>
+        <v>23728.9436</v>
       </c>
       <c r="G165" t="n">
-        <v>13.985</v>
+        <v>13.98</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>14.1</v>
       </c>
       <c r="F166" t="n">
-        <v>39893.1914</v>
+        <v>13150.0709</v>
       </c>
       <c r="G166" t="n">
-        <v>13.99</v>
+        <v>13.985</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>14.1</v>
       </c>
       <c r="F167" t="n">
-        <v>139867.8882</v>
+        <v>39893.1914</v>
       </c>
       <c r="G167" t="n">
-        <v>13.995</v>
+        <v>13.99</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4736,12 +5239,15 @@
         <v>14.1</v>
       </c>
       <c r="F168" t="n">
-        <v>45251.5443</v>
+        <v>139867.8882</v>
       </c>
       <c r="G168" t="n">
-        <v>14.00000000000001</v>
+        <v>13.995</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,7 +5256,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C169" t="n">
         <v>14.1</v>
@@ -4759,15 +5265,18 @@
         <v>14.1</v>
       </c>
       <c r="E169" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F169" t="n">
-        <v>76882.70450000001</v>
+        <v>45251.5443</v>
       </c>
       <c r="G169" t="n">
-        <v>14.00500000000001</v>
+        <v>14.00000000000001</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,7 +5285,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C170" t="n">
         <v>14.1</v>
@@ -4785,15 +5294,18 @@
         <v>14.1</v>
       </c>
       <c r="E170" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F170" t="n">
-        <v>7501.702127659574</v>
+        <v>76882.70450000001</v>
       </c>
       <c r="G170" t="n">
         <v>14.00500000000001</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>14.1</v>
       </c>
       <c r="F171" t="n">
-        <v>6216.0992</v>
+        <v>7501.702127659574</v>
       </c>
       <c r="G171" t="n">
-        <v>14.00333333333334</v>
+        <v>14.00500000000001</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,7 +5343,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C172" t="n">
         <v>14.1</v>
@@ -4837,15 +5352,18 @@
         <v>14.1</v>
       </c>
       <c r="E172" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F172" t="n">
-        <v>2947.7408</v>
+        <v>6216.0992</v>
       </c>
       <c r="G172" t="n">
-        <v>14.00166666666667</v>
+        <v>14.00333333333334</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,7 +5372,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C173" t="n">
         <v>14.1</v>
@@ -4863,15 +5381,18 @@
         <v>14.1</v>
       </c>
       <c r="E173" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F173" t="n">
-        <v>500</v>
+        <v>2947.7408</v>
       </c>
       <c r="G173" t="n">
-        <v>14.00000000000001</v>
+        <v>14.00166666666667</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C174" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D174" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E174" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F174" t="n">
-        <v>1631.9382</v>
+        <v>500</v>
       </c>
       <c r="G174" t="n">
         <v>14.00000000000001</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,12 +5442,15 @@
         <v>14</v>
       </c>
       <c r="F175" t="n">
-        <v>20884.8162</v>
+        <v>1631.9382</v>
       </c>
       <c r="G175" t="n">
-        <v>13.99833333333334</v>
+        <v>14.00000000000001</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4944,12 +5471,15 @@
         <v>14</v>
       </c>
       <c r="F176" t="n">
-        <v>19550.9165</v>
+        <v>20884.8162</v>
       </c>
       <c r="G176" t="n">
-        <v>13.995</v>
+        <v>13.99833333333334</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C177" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D177" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E177" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F177" t="n">
-        <v>35609.7163</v>
+        <v>19550.9165</v>
       </c>
       <c r="G177" t="n">
-        <v>13.99166666666667</v>
+        <v>13.995</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4996,12 +5529,15 @@
         <v>14.1</v>
       </c>
       <c r="F178" t="n">
-        <v>6951.749572340425</v>
+        <v>35609.7163</v>
       </c>
       <c r="G178" t="n">
-        <v>13.98833333333334</v>
+        <v>13.99166666666667</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5022,12 +5558,15 @@
         <v>14.1</v>
       </c>
       <c r="F179" t="n">
-        <v>5000</v>
+        <v>6951.749572340425</v>
       </c>
       <c r="G179" t="n">
-        <v>13.98500000000001</v>
+        <v>13.98833333333334</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5048,12 +5587,15 @@
         <v>14.1</v>
       </c>
       <c r="F180" t="n">
-        <v>4694.92</v>
+        <v>5000</v>
       </c>
       <c r="G180" t="n">
-        <v>13.98333333333334</v>
+        <v>13.98500000000001</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5074,12 +5616,15 @@
         <v>14.1</v>
       </c>
       <c r="F181" t="n">
-        <v>10000</v>
+        <v>4694.92</v>
       </c>
       <c r="G181" t="n">
-        <v>13.98500000000001</v>
+        <v>13.98333333333334</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5091,21 +5636,24 @@
         <v>14.1</v>
       </c>
       <c r="C182" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D182" t="n">
         <v>14.1</v>
       </c>
       <c r="E182" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F182" t="n">
-        <v>142533.0379276596</v>
+        <v>10000</v>
       </c>
       <c r="G182" t="n">
-        <v>13.98666666666668</v>
+        <v>13.98500000000001</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5114,24 +5662,27 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C183" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="D183" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E183" t="n">
         <v>14</v>
       </c>
       <c r="F183" t="n">
-        <v>77708.8028</v>
+        <v>142533.0379276596</v>
       </c>
       <c r="G183" t="n">
-        <v>13.99166666666668</v>
+        <v>13.98666666666668</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5143,21 +5694,24 @@
         <v>14</v>
       </c>
       <c r="C184" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D184" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="E184" t="n">
         <v>14</v>
       </c>
       <c r="F184" t="n">
-        <v>14701.8548</v>
+        <v>77708.8028</v>
       </c>
       <c r="G184" t="n">
-        <v>13.99333333333334</v>
+        <v>13.99166666666668</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F185" t="n">
-        <v>10</v>
+        <v>14701.8548</v>
       </c>
       <c r="G185" t="n">
-        <v>13.99500000000001</v>
+        <v>13.99333333333334</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5204,12 +5761,15 @@
         <v>14.1</v>
       </c>
       <c r="F186" t="n">
-        <v>32827.234</v>
+        <v>10</v>
       </c>
       <c r="G186" t="n">
-        <v>13.99666666666668</v>
+        <v>13.99500000000001</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C187" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D187" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E187" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F187" t="n">
-        <v>6007.8392</v>
+        <v>32827.234</v>
       </c>
       <c r="G187" t="n">
-        <v>13.99833333333334</v>
+        <v>13.99666666666668</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C188" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D188" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E188" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F188" t="n">
-        <v>35521.1869</v>
+        <v>6007.8392</v>
       </c>
       <c r="G188" t="n">
-        <v>13.99666666666668</v>
+        <v>13.99833333333334</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,24 +5836,27 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C189" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D189" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E189" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F189" t="n">
-        <v>100000.0001</v>
+        <v>35521.1869</v>
       </c>
       <c r="G189" t="n">
-        <v>13.99166666666668</v>
+        <v>13.99666666666668</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5308,12 +5877,15 @@
         <v>13.8</v>
       </c>
       <c r="F190" t="n">
-        <v>190540.0581</v>
+        <v>100000.0001</v>
       </c>
       <c r="G190" t="n">
-        <v>13.98500000000001</v>
+        <v>13.99166666666668</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C191" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D191" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E191" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F191" t="n">
-        <v>10</v>
+        <v>190540.0581</v>
       </c>
       <c r="G191" t="n">
-        <v>13.98166666666667</v>
+        <v>13.98500000000001</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C192" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D192" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E192" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F192" t="n">
         <v>10</v>
       </c>
       <c r="G192" t="n">
-        <v>13.97833333333334</v>
+        <v>13.98166666666667</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5386,12 +5964,15 @@
         <v>13.8</v>
       </c>
       <c r="F193" t="n">
-        <v>11.5217</v>
+        <v>10</v>
       </c>
       <c r="G193" t="n">
-        <v>13.975</v>
+        <v>13.97833333333334</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,7 +5981,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C194" t="n">
         <v>13.8</v>
@@ -5409,15 +5990,18 @@
         <v>13.8</v>
       </c>
       <c r="E194" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F194" t="n">
-        <v>99837.0882</v>
+        <v>11.5217</v>
       </c>
       <c r="G194" t="n">
-        <v>13.97166666666667</v>
+        <v>13.975</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,7 +6010,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C195" t="n">
         <v>13.8</v>
@@ -5435,15 +6019,18 @@
         <v>13.8</v>
       </c>
       <c r="E195" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F195" t="n">
-        <v>17831.105</v>
+        <v>99837.0882</v>
       </c>
       <c r="G195" t="n">
-        <v>13.97</v>
+        <v>13.97166666666667</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5464,12 +6051,15 @@
         <v>13.8</v>
       </c>
       <c r="F196" t="n">
-        <v>433.4822</v>
+        <v>17831.105</v>
       </c>
       <c r="G196" t="n">
         <v>13.97</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5481,21 +6071,24 @@
         <v>13.8</v>
       </c>
       <c r="C197" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D197" t="n">
         <v>13.8</v>
       </c>
       <c r="E197" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F197" t="n">
-        <v>61528.7336</v>
+        <v>433.4822</v>
       </c>
       <c r="G197" t="n">
-        <v>13.97166666666667</v>
+        <v>13.97</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5507,21 +6100,24 @@
         <v>13.8</v>
       </c>
       <c r="C198" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D198" t="n">
         <v>13.8</v>
       </c>
       <c r="E198" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F198" t="n">
-        <v>1500</v>
+        <v>61528.7336</v>
       </c>
       <c r="G198" t="n">
         <v>13.97166666666667</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5542,12 +6138,15 @@
         <v>13.8</v>
       </c>
       <c r="F199" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G199" t="n">
-        <v>13.975</v>
+        <v>13.97166666666667</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,7 +6155,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C200" t="n">
         <v>13.8</v>
@@ -5565,15 +6164,18 @@
         <v>13.8</v>
       </c>
       <c r="E200" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F200" t="n">
-        <v>405096.1661</v>
+        <v>500</v>
       </c>
       <c r="G200" t="n">
-        <v>13.97333333333334</v>
+        <v>13.975</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,10 +6184,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C201" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D201" t="n">
         <v>13.8</v>
@@ -5594,12 +6196,15 @@
         <v>13.7</v>
       </c>
       <c r="F201" t="n">
-        <v>18110.21526376812</v>
+        <v>405096.1661</v>
       </c>
       <c r="G201" t="n">
-        <v>13.97</v>
+        <v>13.97333333333334</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5611,21 +6216,24 @@
         <v>13.8</v>
       </c>
       <c r="C202" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D202" t="n">
         <v>13.8</v>
       </c>
       <c r="E202" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F202" t="n">
-        <v>31540.3724</v>
+        <v>18110.21526376812</v>
       </c>
       <c r="G202" t="n">
-        <v>13.96833333333334</v>
+        <v>13.97</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5646,12 +6254,15 @@
         <v>13.8</v>
       </c>
       <c r="F203" t="n">
-        <v>22906.13683623188</v>
+        <v>31540.3724</v>
       </c>
       <c r="G203" t="n">
-        <v>13.96666666666667</v>
+        <v>13.96833333333334</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5660,24 +6271,27 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C204" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D204" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E204" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F204" t="n">
-        <v>8782.3174</v>
+        <v>22906.13683623188</v>
       </c>
       <c r="G204" t="n">
-        <v>13.96333333333334</v>
+        <v>13.96666666666667</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C205" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="D205" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="E205" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F205" t="n">
-        <v>321643.5319</v>
+        <v>8782.3174</v>
       </c>
       <c r="G205" t="n">
-        <v>13.96166666666667</v>
+        <v>13.96333333333334</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,24 +6329,27 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C206" t="n">
         <v>13.9</v>
       </c>
       <c r="D206" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E206" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F206" t="n">
-        <v>163.9395</v>
+        <v>321643.5319</v>
       </c>
       <c r="G206" t="n">
-        <v>13.96</v>
+        <v>13.96166666666667</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5741,21 +6361,24 @@
         <v>13.9</v>
       </c>
       <c r="C207" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="D207" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="E207" t="n">
         <v>13.9</v>
       </c>
       <c r="F207" t="n">
-        <v>44369.4509</v>
+        <v>163.9395</v>
       </c>
       <c r="G207" t="n">
-        <v>13.95833333333334</v>
+        <v>13.96</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,10 +6387,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="C208" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="D208" t="n">
         <v>14.1</v>
@@ -5776,12 +6399,15 @@
         <v>13.9</v>
       </c>
       <c r="F208" t="n">
-        <v>40</v>
+        <v>44369.4509</v>
       </c>
       <c r="G208" t="n">
-        <v>13.955</v>
+        <v>13.95833333333334</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5793,21 +6419,24 @@
         <v>14.1</v>
       </c>
       <c r="C209" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="D209" t="n">
         <v>14.1</v>
       </c>
       <c r="E209" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="F209" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G209" t="n">
         <v>13.955</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,12 +6457,15 @@
         <v>14.1</v>
       </c>
       <c r="F210" t="n">
-        <v>71948.0851</v>
+        <v>10</v>
       </c>
       <c r="G210" t="n">
         <v>13.955</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5845,21 +6477,24 @@
         <v>14.1</v>
       </c>
       <c r="C211" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D211" t="n">
         <v>14.1</v>
       </c>
       <c r="E211" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F211" t="n">
-        <v>16915.125</v>
+        <v>71948.0851</v>
       </c>
       <c r="G211" t="n">
-        <v>13.96333333333334</v>
+        <v>13.955</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,24 +6503,27 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C212" t="n">
         <v>14</v>
       </c>
       <c r="D212" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E212" t="n">
         <v>14</v>
       </c>
       <c r="F212" t="n">
-        <v>16162.6785</v>
+        <v>16915.125</v>
       </c>
       <c r="G212" t="n">
-        <v>13.96666666666667</v>
+        <v>13.96333333333334</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5906,12 +6544,15 @@
         <v>14</v>
       </c>
       <c r="F213" t="n">
-        <v>71429</v>
+        <v>16162.6785</v>
       </c>
       <c r="G213" t="n">
         <v>13.96666666666667</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C214" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D214" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E214" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F214" t="n">
-        <v>141420.8609</v>
+        <v>71429</v>
       </c>
       <c r="G214" t="n">
-        <v>13.96833333333334</v>
+        <v>13.96666666666667</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5958,12 +6602,15 @@
         <v>13.9</v>
       </c>
       <c r="F215" t="n">
-        <v>10798.0098</v>
+        <v>141420.8609</v>
       </c>
       <c r="G215" t="n">
-        <v>13.97166666666667</v>
+        <v>13.96833333333334</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5984,12 +6631,15 @@
         <v>13.9</v>
       </c>
       <c r="F216" t="n">
-        <v>4373.989</v>
+        <v>10798.0098</v>
       </c>
       <c r="G216" t="n">
         <v>13.97166666666667</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6010,12 +6660,15 @@
         <v>13.9</v>
       </c>
       <c r="F217" t="n">
-        <v>32401.9119</v>
+        <v>4373.989</v>
       </c>
       <c r="G217" t="n">
         <v>13.97166666666667</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C218" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D218" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E218" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F218" t="n">
-        <v>8081.3571</v>
+        <v>32401.9119</v>
       </c>
       <c r="G218" t="n">
-        <v>13.97333333333334</v>
+        <v>13.97166666666667</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,24 +6706,27 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C219" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D219" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E219" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F219" t="n">
-        <v>69187.11</v>
+        <v>8081.3571</v>
       </c>
       <c r="G219" t="n">
-        <v>13.97166666666667</v>
+        <v>13.97333333333334</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6076,24 +6735,27 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C220" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D220" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E220" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F220" t="n">
-        <v>98436.0328</v>
+        <v>69187.11</v>
       </c>
       <c r="G220" t="n">
-        <v>13.96833333333334</v>
+        <v>13.97166666666667</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6114,12 +6776,15 @@
         <v>13.8</v>
       </c>
       <c r="F221" t="n">
-        <v>32160.7803</v>
+        <v>98436.0328</v>
       </c>
       <c r="G221" t="n">
-        <v>13.965</v>
+        <v>13.96833333333334</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6131,21 +6796,24 @@
         <v>13.8</v>
       </c>
       <c r="C222" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D222" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E222" t="n">
         <v>13.8</v>
       </c>
       <c r="F222" t="n">
-        <v>7351.9387</v>
+        <v>32160.7803</v>
       </c>
       <c r="G222" t="n">
-        <v>13.96166666666667</v>
+        <v>13.965</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6157,21 +6825,24 @@
         <v>13.8</v>
       </c>
       <c r="C223" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D223" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E223" t="n">
         <v>13.8</v>
       </c>
       <c r="F223" t="n">
-        <v>90657.5953</v>
+        <v>7351.9387</v>
       </c>
       <c r="G223" t="n">
-        <v>13.955</v>
+        <v>13.96166666666667</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6180,24 +6851,27 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C224" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D224" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E224" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F224" t="n">
-        <v>71949.9034</v>
+        <v>90657.5953</v>
       </c>
       <c r="G224" t="n">
-        <v>13.94666666666667</v>
+        <v>13.955</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6218,12 +6892,15 @@
         <v>13.7</v>
       </c>
       <c r="F225" t="n">
-        <v>509.369</v>
+        <v>71949.9034</v>
       </c>
       <c r="G225" t="n">
-        <v>13.94</v>
+        <v>13.94666666666667</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6244,12 +6921,15 @@
         <v>13.7</v>
       </c>
       <c r="F226" t="n">
-        <v>9841.475399999999</v>
+        <v>509.369</v>
       </c>
       <c r="G226" t="n">
-        <v>13.93333333333333</v>
+        <v>13.94</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6258,24 +6938,27 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C227" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="D227" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="E227" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F227" t="n">
-        <v>108924.8531</v>
+        <v>9841.475399999999</v>
       </c>
       <c r="G227" t="n">
-        <v>13.93</v>
+        <v>13.93333333333333</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,7 +6967,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C228" t="n">
         <v>13.9</v>
@@ -6293,15 +6976,18 @@
         <v>13.9</v>
       </c>
       <c r="E228" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F228" t="n">
-        <v>2520</v>
+        <v>108924.8531</v>
       </c>
       <c r="G228" t="n">
-        <v>13.92666666666667</v>
+        <v>13.93</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6325,9 +7011,12 @@
         <v>2520</v>
       </c>
       <c r="G229" t="n">
-        <v>13.92333333333333</v>
+        <v>13.92666666666667</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,24 +7025,27 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C230" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="D230" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="E230" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F230" t="n">
-        <v>292876.7707</v>
+        <v>2520</v>
       </c>
       <c r="G230" t="n">
         <v>13.92333333333333</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="C231" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D231" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E231" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="F231" t="n">
-        <v>51247.6622</v>
+        <v>292876.7707</v>
       </c>
       <c r="G231" t="n">
-        <v>13.92166666666666</v>
+        <v>13.92333333333333</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6400,12 +7095,15 @@
         <v>14</v>
       </c>
       <c r="F232" t="n">
-        <v>51595.8836</v>
+        <v>51247.6622</v>
       </c>
       <c r="G232" t="n">
-        <v>13.92</v>
+        <v>13.92166666666666</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6426,12 +7124,15 @@
         <v>14</v>
       </c>
       <c r="F233" t="n">
-        <v>9285.6163</v>
+        <v>51595.8836</v>
       </c>
       <c r="G233" t="n">
-        <v>13.91833333333333</v>
+        <v>13.92</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6452,12 +7153,15 @@
         <v>14</v>
       </c>
       <c r="F234" t="n">
-        <v>24009.5714</v>
+        <v>9285.6163</v>
       </c>
       <c r="G234" t="n">
         <v>13.91833333333333</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6466,24 +7170,27 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C235" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D235" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E235" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F235" t="n">
-        <v>2914.67</v>
+        <v>24009.5714</v>
       </c>
       <c r="G235" t="n">
-        <v>13.91666666666666</v>
+        <v>13.91833333333333</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C236" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D236" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E236" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F236" t="n">
-        <v>2920</v>
+        <v>2914.67</v>
       </c>
       <c r="G236" t="n">
         <v>13.91666666666666</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C237" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D237" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E237" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F237" t="n">
-        <v>119742.6241</v>
+        <v>2920</v>
       </c>
       <c r="G237" t="n">
         <v>13.91666666666666</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6556,12 +7269,15 @@
         <v>14.1</v>
       </c>
       <c r="F238" t="n">
-        <v>53235.6382</v>
+        <v>119742.6241</v>
       </c>
       <c r="G238" t="n">
         <v>13.91666666666666</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6582,12 +7298,15 @@
         <v>14.1</v>
       </c>
       <c r="F239" t="n">
-        <v>35415.1321</v>
+        <v>53235.6382</v>
       </c>
       <c r="G239" t="n">
         <v>13.91666666666666</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6608,12 +7327,15 @@
         <v>14.1</v>
       </c>
       <c r="F240" t="n">
-        <v>741.4893</v>
+        <v>35415.1321</v>
       </c>
       <c r="G240" t="n">
         <v>13.91666666666666</v>
       </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6634,12 +7356,15 @@
         <v>14.1</v>
       </c>
       <c r="F241" t="n">
-        <v>29989.7508</v>
+        <v>741.4893</v>
       </c>
       <c r="G241" t="n">
         <v>13.91666666666666</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="C242" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="D242" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E242" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="F242" t="n">
-        <v>84629.4365</v>
+        <v>29989.7508</v>
       </c>
       <c r="G242" t="n">
-        <v>13.92</v>
+        <v>13.91666666666666</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6686,12 +7414,15 @@
         <v>14.2</v>
       </c>
       <c r="F243" t="n">
-        <v>76036.2066</v>
+        <v>84629.4365</v>
       </c>
       <c r="G243" t="n">
         <v>13.92</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6712,12 +7443,15 @@
         <v>14.2</v>
       </c>
       <c r="F244" t="n">
-        <v>6827.3144</v>
+        <v>76036.2066</v>
       </c>
       <c r="G244" t="n">
-        <v>13.92333333333333</v>
+        <v>13.92</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6738,12 +7472,15 @@
         <v>14.2</v>
       </c>
       <c r="F245" t="n">
-        <v>3580</v>
+        <v>6827.3144</v>
       </c>
       <c r="G245" t="n">
-        <v>13.925</v>
+        <v>13.92333333333333</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6764,12 +7501,15 @@
         <v>14.2</v>
       </c>
       <c r="F246" t="n">
-        <v>559.2957</v>
+        <v>3580</v>
       </c>
       <c r="G246" t="n">
-        <v>13.92666666666667</v>
+        <v>13.925</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,24 +7518,27 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="C247" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D247" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="E247" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="F247" t="n">
-        <v>10</v>
+        <v>559.2957</v>
       </c>
       <c r="G247" t="n">
         <v>13.92666666666667</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,24 +7547,27 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="C248" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="D248" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="E248" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="F248" t="n">
-        <v>33280.1747</v>
+        <v>10</v>
       </c>
       <c r="G248" t="n">
-        <v>13.93333333333333</v>
+        <v>13.92666666666667</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6833,21 +7579,24 @@
         <v>14.3</v>
       </c>
       <c r="C249" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D249" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E249" t="n">
         <v>14.3</v>
       </c>
       <c r="F249" t="n">
-        <v>331754.7407</v>
+        <v>33280.1747</v>
       </c>
       <c r="G249" t="n">
-        <v>13.94333333333333</v>
+        <v>13.93333333333333</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,7 +7605,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C250" t="n">
         <v>14.4</v>
@@ -6865,15 +7614,18 @@
         <v>14.4</v>
       </c>
       <c r="E250" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F250" t="n">
-        <v>407.73</v>
+        <v>331754.7407</v>
       </c>
       <c r="G250" t="n">
-        <v>13.95333333333333</v>
+        <v>13.94333333333333</v>
       </c>
       <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6894,12 +7646,15 @@
         <v>14.4</v>
       </c>
       <c r="F251" t="n">
-        <v>149000</v>
+        <v>407.73</v>
       </c>
       <c r="G251" t="n">
-        <v>13.96166666666667</v>
+        <v>13.95333333333333</v>
       </c>
       <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6908,24 +7663,27 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C252" t="n">
         <v>14.4</v>
       </c>
       <c r="D252" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E252" t="n">
         <v>14.4</v>
       </c>
       <c r="F252" t="n">
-        <v>61387.4364</v>
+        <v>149000</v>
       </c>
       <c r="G252" t="n">
-        <v>13.97166666666667</v>
+        <v>13.96166666666667</v>
       </c>
       <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6937,21 +7695,24 @@
         <v>14.5</v>
       </c>
       <c r="C253" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D253" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E253" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F253" t="n">
-        <v>120051</v>
+        <v>61387.4364</v>
       </c>
       <c r="G253" t="n">
-        <v>13.985</v>
+        <v>13.97166666666667</v>
       </c>
       <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6960,24 +7721,27 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C254" t="n">
         <v>14.6</v>
       </c>
-      <c r="C254" t="n">
-        <v>14.7</v>
-      </c>
       <c r="D254" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E254" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F254" t="n">
-        <v>337319.4699</v>
+        <v>120051</v>
       </c>
       <c r="G254" t="n">
-        <v>14</v>
+        <v>13.985</v>
       </c>
       <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6986,24 +7750,27 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C255" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D255" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="E255" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F255" t="n">
-        <v>642629.6448631579</v>
+        <v>337319.4699</v>
       </c>
       <c r="G255" t="n">
-        <v>14.02333333333334</v>
+        <v>14</v>
       </c>
       <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,10 +7779,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C256" t="n">
         <v>15.2</v>
-      </c>
-      <c r="C256" t="n">
-        <v>15.1</v>
       </c>
       <c r="D256" t="n">
         <v>15.2</v>
@@ -7024,12 +7791,15 @@
         <v>14.8</v>
       </c>
       <c r="F256" t="n">
-        <v>383068.1962</v>
+        <v>642629.6448631579</v>
       </c>
       <c r="G256" t="n">
-        <v>14.04500000000001</v>
+        <v>14.02333333333334</v>
       </c>
       <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,25 +7808,28 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C257" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D257" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E257" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F257" t="n">
-        <v>266864.0481</v>
+        <v>383068.1962</v>
       </c>
       <c r="G257" t="n">
-        <v>14.065</v>
+        <v>14.04500000000001</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -7076,13 +7849,16 @@
         <v>14.9</v>
       </c>
       <c r="F258" t="n">
-        <v>63007.8798</v>
+        <v>266864.0481</v>
       </c>
       <c r="G258" t="n">
-        <v>14.08333333333334</v>
+        <v>14.065</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -7090,7 +7866,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C259" t="n">
         <v>14.9</v>
@@ -7099,15 +7875,18 @@
         <v>14.9</v>
       </c>
       <c r="E259" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F259" t="n">
-        <v>27930.9342</v>
+        <v>63007.8798</v>
       </c>
       <c r="G259" t="n">
-        <v>14.10166666666667</v>
+        <v>14.08333333333334</v>
       </c>
       <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,7 +7895,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C260" t="n">
         <v>14.9</v>
@@ -7125,15 +7904,18 @@
         <v>14.9</v>
       </c>
       <c r="E260" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F260" t="n">
-        <v>12.0898</v>
+        <v>27930.9342</v>
       </c>
       <c r="G260" t="n">
-        <v>14.12</v>
+        <v>14.10166666666667</v>
       </c>
       <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7142,24 +7924,27 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C261" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="D261" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E261" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="F261" t="n">
-        <v>129075.2838</v>
+        <v>12.0898</v>
       </c>
       <c r="G261" t="n">
-        <v>14.13666666666667</v>
+        <v>14.12</v>
       </c>
       <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7171,21 +7956,24 @@
         <v>14.8</v>
       </c>
       <c r="C262" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D262" t="n">
         <v>14.8</v>
       </c>
       <c r="E262" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F262" t="n">
-        <v>274349.5996</v>
+        <v>129075.2838</v>
       </c>
       <c r="G262" t="n">
-        <v>14.15000000000001</v>
+        <v>14.13666666666667</v>
       </c>
       <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7194,24 +7982,27 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C263" t="n">
         <v>14.6</v>
       </c>
       <c r="D263" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E263" t="n">
         <v>14.6</v>
       </c>
       <c r="F263" t="n">
-        <v>74000</v>
+        <v>274349.5996</v>
       </c>
       <c r="G263" t="n">
-        <v>14.16333333333334</v>
+        <v>14.15000000000001</v>
       </c>
       <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7223,21 +8014,24 @@
         <v>14.6</v>
       </c>
       <c r="C264" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D264" t="n">
         <v>14.6</v>
       </c>
       <c r="E264" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F264" t="n">
-        <v>794344.681</v>
+        <v>74000</v>
       </c>
       <c r="G264" t="n">
-        <v>14.17500000000001</v>
+        <v>14.16333333333334</v>
       </c>
       <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7246,24 +8040,27 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C265" t="n">
         <v>14.4</v>
       </c>
-      <c r="C265" t="n">
-        <v>14.5</v>
-      </c>
       <c r="D265" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E265" t="n">
         <v>14.4</v>
       </c>
       <c r="F265" t="n">
-        <v>480133.1388</v>
+        <v>794344.681</v>
       </c>
       <c r="G265" t="n">
-        <v>14.18500000000001</v>
+        <v>14.17500000000001</v>
       </c>
       <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7272,24 +8069,27 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C266" t="n">
         <v>14.5</v>
       </c>
-      <c r="C266" t="n">
-        <v>14.6</v>
-      </c>
       <c r="D266" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E266" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F266" t="n">
-        <v>118762.6116</v>
+        <v>480133.1388</v>
       </c>
       <c r="G266" t="n">
-        <v>14.19666666666667</v>
+        <v>14.18500000000001</v>
       </c>
       <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7298,7 +8098,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C267" t="n">
         <v>14.6</v>
@@ -7307,15 +8107,18 @@
         <v>14.6</v>
       </c>
       <c r="E267" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F267" t="n">
-        <v>23002.6712</v>
+        <v>118762.6116</v>
       </c>
       <c r="G267" t="n">
-        <v>14.20500000000001</v>
+        <v>14.19666666666667</v>
       </c>
       <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7324,24 +8127,27 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C268" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D268" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E268" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F268" t="n">
-        <v>165611.5109</v>
+        <v>23002.6712</v>
       </c>
       <c r="G268" t="n">
-        <v>14.21333333333334</v>
+        <v>14.20500000000001</v>
       </c>
       <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7353,21 +8159,24 @@
         <v>14.5</v>
       </c>
       <c r="C269" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D269" t="n">
         <v>14.5</v>
       </c>
       <c r="E269" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F269" t="n">
-        <v>4746.4899</v>
+        <v>165611.5109</v>
       </c>
       <c r="G269" t="n">
-        <v>14.22000000000001</v>
+        <v>14.21333333333334</v>
       </c>
       <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7376,24 +8185,27 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C270" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D270" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E270" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F270" t="n">
-        <v>11024.2873</v>
+        <v>4746.4899</v>
       </c>
       <c r="G270" t="n">
-        <v>14.225</v>
+        <v>14.22000000000001</v>
       </c>
       <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7402,24 +8214,27 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C271" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D271" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E271" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F271" t="n">
-        <v>94341.6597</v>
+        <v>11024.2873</v>
       </c>
       <c r="G271" t="n">
-        <v>14.23333333333334</v>
+        <v>14.225</v>
       </c>
       <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7440,12 +8255,15 @@
         <v>14.5</v>
       </c>
       <c r="F272" t="n">
-        <v>4259.931</v>
+        <v>94341.6597</v>
       </c>
       <c r="G272" t="n">
-        <v>14.24166666666667</v>
+        <v>14.23333333333334</v>
       </c>
       <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7454,7 +8272,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C273" t="n">
         <v>14.5</v>
@@ -7463,15 +8281,18 @@
         <v>14.5</v>
       </c>
       <c r="E273" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F273" t="n">
-        <v>3868.9459</v>
+        <v>4259.931</v>
       </c>
       <c r="G273" t="n">
-        <v>14.25000000000001</v>
+        <v>14.24166666666667</v>
       </c>
       <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7483,21 +8304,24 @@
         <v>14.4</v>
       </c>
       <c r="C274" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="D274" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E274" t="n">
         <v>14.4</v>
       </c>
-      <c r="E274" t="n">
-        <v>14.3</v>
-      </c>
       <c r="F274" t="n">
-        <v>128724.7085</v>
+        <v>3868.9459</v>
       </c>
       <c r="G274" t="n">
-        <v>14.25666666666667</v>
+        <v>14.25000000000001</v>
       </c>
       <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7509,21 +8333,24 @@
         <v>14.4</v>
       </c>
       <c r="C275" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="D275" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E275" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F275" t="n">
-        <v>36886.3448</v>
+        <v>128724.7085</v>
       </c>
       <c r="G275" t="n">
-        <v>14.26666666666667</v>
+        <v>14.25666666666667</v>
       </c>
       <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7535,21 +8362,24 @@
         <v>14.4</v>
       </c>
       <c r="C276" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D276" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E276" t="n">
         <v>14.4</v>
       </c>
       <c r="F276" t="n">
-        <v>6030</v>
+        <v>36886.3448</v>
       </c>
       <c r="G276" t="n">
-        <v>14.27500000000001</v>
+        <v>14.26666666666667</v>
       </c>
       <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7564,18 +8394,21 @@
         <v>14.4</v>
       </c>
       <c r="D277" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E277" t="n">
         <v>14.4</v>
       </c>
       <c r="F277" t="n">
-        <v>48766.4079</v>
+        <v>6030</v>
       </c>
       <c r="G277" t="n">
-        <v>14.28333333333334</v>
+        <v>14.27500000000001</v>
       </c>
       <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7584,7 +8417,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C278" t="n">
         <v>14.4</v>
@@ -7596,532 +8429,15 @@
         <v>14.4</v>
       </c>
       <c r="F278" t="n">
-        <v>178746.7324</v>
+        <v>48766.4079</v>
       </c>
       <c r="G278" t="n">
-        <v>14.29</v>
+        <v>14.28333333333334</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C279" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D279" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E279" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F279" t="n">
-        <v>67960.58560000001</v>
-      </c>
-      <c r="G279" t="n">
-        <v>14.29833333333334</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C280" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="D280" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E280" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F280" t="n">
-        <v>6038.3084</v>
-      </c>
-      <c r="G280" t="n">
-        <v>14.30666666666667</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C281" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D281" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E281" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F281" t="n">
-        <v>39535.6622</v>
-      </c>
-      <c r="G281" t="n">
-        <v>14.31666666666667</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C282" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D282" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E282" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F282" t="n">
-        <v>50998.4878</v>
-      </c>
-      <c r="G282" t="n">
-        <v>14.32666666666667</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C283" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D283" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E283" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F283" t="n">
-        <v>784.931506849315</v>
-      </c>
-      <c r="G283" t="n">
-        <v>14.34000000000001</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C284" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D284" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E284" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F284" t="n">
-        <v>1369.86301369863</v>
-      </c>
-      <c r="G284" t="n">
-        <v>14.35500000000001</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C285" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D285" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E285" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F285" t="n">
-        <v>4999.85</v>
-      </c>
-      <c r="G285" t="n">
-        <v>14.36833333333334</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C286" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D286" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E286" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F286" t="n">
-        <v>13656.83457241379</v>
-      </c>
-      <c r="G286" t="n">
-        <v>14.38166666666667</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C287" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D287" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E287" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F287" t="n">
-        <v>18114.8893</v>
-      </c>
-      <c r="G287" t="n">
-        <v>14.39000000000001</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C288" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D288" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E288" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F288" t="n">
-        <v>52971.3004</v>
-      </c>
-      <c r="G288" t="n">
-        <v>14.40000000000001</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C289" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D289" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E289" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F289" t="n">
-        <v>409456.5804</v>
-      </c>
-      <c r="G289" t="n">
-        <v>14.41000000000001</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C290" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="D290" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="E290" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F290" t="n">
-        <v>100.3681</v>
-      </c>
-      <c r="G290" t="n">
-        <v>14.41833333333334</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C291" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="D291" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E291" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="F291" t="n">
-        <v>380.06</v>
-      </c>
-      <c r="G291" t="n">
-        <v>14.42666666666667</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C292" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D292" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="E292" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F292" t="n">
-        <v>29124.463</v>
-      </c>
-      <c r="G292" t="n">
-        <v>14.43333333333334</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C293" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D293" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E293" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F293" t="n">
-        <v>248560.7546</v>
-      </c>
-      <c r="G293" t="n">
-        <v>14.43666666666667</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="C294" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="D294" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E294" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F294" t="n">
-        <v>49813.0971</v>
-      </c>
-      <c r="G294" t="n">
-        <v>14.44166666666667</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="C295" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="D295" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="E295" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="F295" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G295" t="n">
-        <v>14.45000000000001</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C296" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="D296" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E296" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="F296" t="n">
-        <v>101513.0273</v>
-      </c>
-      <c r="G296" t="n">
-        <v>14.45500000000001</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="C297" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D297" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="E297" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F297" t="n">
-        <v>155671.2882</v>
-      </c>
-      <c r="G297" t="n">
-        <v>14.45666666666667</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="C298" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D298" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="E298" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="F298" t="n">
-        <v>57768.0203</v>
-      </c>
-      <c r="G298" t="n">
-        <v>14.45833333333334</v>
-      </c>
-      <c r="H298" t="n">
+      <c r="I278" t="n">
         <v>0</v>
       </c>
     </row>
